--- a/读书计划.xlsx
+++ b/读书计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9492"/>
   </bookViews>
   <sheets>
     <sheet name="读书行动" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="141">
   <si>
     <t>基本信息</t>
   </si>
@@ -502,19 +502,6 @@
     <t>追风筝的人</t>
   </si>
   <si>
-    <r>
-      <t>230-文</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学</t>
-    </r>
-  </si>
-  <si>
     <t>美丽新世界</t>
   </si>
   <si>
@@ -689,13 +676,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,7 +734,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,14 +770,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -785,7 +779,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,29 +818,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,9 +855,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,14 +864,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,13 +875,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -945,7 +927,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,25 +939,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,25 +987,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,7 +1005,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,19 +1023,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,61 +1059,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,17 +1143,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1224,17 +1176,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1248,22 +1211,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1290,10 +1248,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1302,130 +1260,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1833,22 +1791,22 @@
   <dimension ref="A1:O279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="19.1083333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="24.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="16.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="16.6666666666667" style="10" customWidth="1"/>
     <col min="6" max="15" width="16.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" ht="15.6" spans="1:15">
       <c r="A1" s="9"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -1918,7 +1876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:15">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1949,7 +1907,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" ht="15" spans="1:15">
+    <row r="4" spans="1:15">
       <c r="A4" s="17" t="s">
         <v>22</v>
       </c>
@@ -1980,7 +1938,7 @@
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
     </row>
-    <row r="5" ht="15" spans="1:15">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -2011,7 +1969,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" ht="15" spans="1:15">
+    <row r="6" spans="1:15">
       <c r="A6" s="17" t="s">
         <v>28</v>
       </c>
@@ -2042,7 +2000,7 @@
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
     </row>
-    <row r="7" ht="15" spans="1:15">
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -2073,7 +2031,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" ht="15" spans="1:15">
+    <row r="8" spans="1:15">
       <c r="A8" s="17" t="s">
         <v>31</v>
       </c>
@@ -2104,7 +2062,7 @@
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" ht="15" spans="1:15">
+    <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -2135,7 +2093,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" ht="15" spans="1:15">
+    <row r="10" spans="1:15">
       <c r="A10" s="17" t="s">
         <v>35</v>
       </c>
@@ -2166,7 +2124,7 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" ht="15" spans="1:15">
+    <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -2197,7 +2155,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" ht="15" spans="1:15">
+    <row r="12" spans="1:15">
       <c r="A12" s="17" t="s">
         <v>38</v>
       </c>
@@ -2228,7 +2186,7 @@
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" ht="15" spans="1:15">
+    <row r="13" spans="1:15">
       <c r="A13" s="19" t="s">
         <v>41</v>
       </c>
@@ -2259,7 +2217,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" ht="15" spans="1:15">
+    <row r="14" spans="1:15">
       <c r="A14" s="17" t="s">
         <v>43</v>
       </c>
@@ -2290,7 +2248,7 @@
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
     </row>
-    <row r="15" ht="15" spans="1:15">
+    <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -2321,7 +2279,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" ht="15" spans="1:15">
+    <row r="16" spans="1:15">
       <c r="A16" s="17" t="s">
         <v>46</v>
       </c>
@@ -2354,7 +2312,7 @@
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" ht="15" spans="1:15">
+    <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2389,7 +2347,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" ht="15" spans="1:15">
+    <row r="18" spans="1:15">
       <c r="A18" s="17" t="s">
         <v>53</v>
       </c>
@@ -2424,7 +2382,7 @@
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" ht="15" spans="1:15">
+    <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -2459,7 +2417,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" ht="15" spans="1:15">
+    <row r="20" spans="1:15">
       <c r="A20" s="17" t="s">
         <v>57</v>
       </c>
@@ -2490,7 +2448,7 @@
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
     </row>
-    <row r="21" ht="15" spans="1:15">
+    <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -2523,7 +2481,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" ht="15" spans="1:15">
+    <row r="22" spans="1:15">
       <c r="A22" s="17" t="s">
         <v>61</v>
       </c>
@@ -2556,7 +2514,7 @@
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
     </row>
-    <row r="23" ht="15" spans="1:15">
+    <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
         <v>62</v>
       </c>
@@ -2589,7 +2547,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" ht="15" spans="1:15">
+    <row r="24" spans="1:15">
       <c r="A24" s="17" t="s">
         <v>64</v>
       </c>
@@ -2622,7 +2580,7 @@
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
     </row>
-    <row r="25" ht="15" spans="1:15">
+    <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
@@ -2651,7 +2609,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" ht="15" spans="1:15">
+    <row r="26" spans="1:15">
       <c r="A26" s="17" t="s">
         <v>67</v>
       </c>
@@ -2684,7 +2642,7 @@
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
     </row>
-    <row r="27" ht="15" spans="1:15">
+    <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
         <v>70</v>
       </c>
@@ -2717,7 +2675,7 @@
       </c>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" ht="15" spans="1:15">
+    <row r="28" spans="1:15">
       <c r="A28" s="17" t="s">
         <v>73</v>
       </c>
@@ -2752,7 +2710,7 @@
       </c>
       <c r="O28" s="17"/>
     </row>
-    <row r="29" ht="15" spans="1:15">
+    <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
         <v>74</v>
       </c>
@@ -2787,7 +2745,7 @@
       </c>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" ht="15" spans="1:15">
+    <row r="30" spans="1:15">
       <c r="A30" s="17" t="s">
         <v>75</v>
       </c>
@@ -2822,7 +2780,7 @@
       </c>
       <c r="O30" s="17"/>
     </row>
-    <row r="31" ht="15" spans="1:15">
+    <row r="31" spans="1:15">
       <c r="A31" s="2" t="s">
         <v>77</v>
       </c>
@@ -2853,7 +2811,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" ht="15" spans="1:15">
+    <row r="32" spans="1:15">
       <c r="A32" s="17" t="s">
         <v>80</v>
       </c>
@@ -2884,7 +2842,7 @@
       <c r="N32" s="17"/>
       <c r="O32" s="17"/>
     </row>
-    <row r="33" ht="15" spans="1:15">
+    <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
         <v>82</v>
       </c>
@@ -2917,7 +2875,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" ht="15" spans="1:15">
+    <row r="34" spans="1:15">
       <c r="A34" s="17" t="s">
         <v>85</v>
       </c>
@@ -2950,7 +2908,7 @@
       <c r="N34" s="17"/>
       <c r="O34" s="17"/>
     </row>
-    <row r="35" ht="15" spans="1:15">
+    <row r="35" spans="1:15">
       <c r="A35" s="2" t="s">
         <v>88</v>
       </c>
@@ -2983,7 +2941,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" ht="15" spans="1:15">
+    <row r="36" spans="1:15">
       <c r="A36" s="20" t="s">
         <v>90</v>
       </c>
@@ -3016,7 +2974,7 @@
       <c r="N36" s="17"/>
       <c r="O36" s="17"/>
     </row>
-    <row r="37" ht="15" spans="1:15">
+    <row r="37" spans="1:15">
       <c r="A37" s="19" t="s">
         <v>92</v>
       </c>
@@ -3049,7 +3007,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" ht="15" spans="1:15">
+    <row r="38" spans="1:15">
       <c r="A38" s="20" t="s">
         <v>94</v>
       </c>
@@ -3082,7 +3040,7 @@
       <c r="N38" s="17"/>
       <c r="O38" s="17"/>
     </row>
-    <row r="39" ht="15" spans="1:15">
+    <row r="39" spans="1:15">
       <c r="A39" s="19" t="s">
         <v>96</v>
       </c>
@@ -3123,7 +3081,7 @@
         <v>83</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="18">
@@ -3135,7 +3093,9 @@
       <c r="G40" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H40" s="17"/>
+      <c r="H40" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
       <c r="K40" s="17" t="s">
@@ -3148,9 +3108,9 @@
       <c r="N40" s="17"/>
       <c r="O40" s="17"/>
     </row>
-    <row r="41" ht="15" spans="1:15">
+    <row r="41" spans="1:15">
       <c r="A41" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>83</v>
@@ -3183,13 +3143,13 @@
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:15">
       <c r="A42" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="18">
@@ -3214,9 +3174,9 @@
       <c r="N42" s="17"/>
       <c r="O42" s="17"/>
     </row>
-    <row r="43" ht="15" spans="1:15">
+    <row r="43" spans="1:15">
       <c r="A43" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>83</v>
@@ -3247,7 +3207,7 @@
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:15">
       <c r="A44" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>83</v>
@@ -3276,9 +3236,9 @@
       <c r="N44" s="17"/>
       <c r="O44" s="17"/>
     </row>
-    <row r="45" ht="15" spans="1:15">
+    <row r="45" spans="1:15">
       <c r="A45" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>83</v>
@@ -3309,7 +3269,7 @@
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:15">
       <c r="A46" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>83</v>
@@ -7341,17 +7301,17 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.8833333333333" customWidth="1"/>
-    <col min="2" max="2" width="12.1083333333333" customWidth="1"/>
-    <col min="3" max="3" width="18.2166666666667" customWidth="1"/>
+    <col min="1" max="1" width="15.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="12.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="18.212962962963" customWidth="1"/>
     <col min="4" max="4" width="57.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.1" customHeight="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7359,41 +7319,41 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="3" ht="15" spans="1:4">
-      <c r="A3" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" ht="15" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="8"/>
       <c r="B4" s="8">
         <v>110</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:4">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="8"/>
       <c r="B5" s="8">
         <v>120</v>
@@ -7402,10 +7362,10 @@
         <v>97</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" ht="15" spans="1:4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="8"/>
       <c r="B6" s="8">
         <v>140</v>
@@ -7414,42 +7374,42 @@
         <v>48</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:4">
-      <c r="A7" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="8"/>
       <c r="B8" s="8">
         <v>210</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="1:4">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>220</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" ht="15" spans="1:4">
+    <row r="10" spans="1:4">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>230</v>
@@ -7458,10 +7418,10 @@
         <v>20</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" ht="15" spans="1:4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="8"/>
       <c r="B11" s="8">
         <v>240</v>
@@ -7470,22 +7430,22 @@
         <v>72</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" ht="15" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="8"/>
       <c r="B12" s="8">
         <v>250</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="1:4">
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="8"/>
       <c r="B13" s="8">
         <v>260</v>
@@ -7494,10 +7454,10 @@
         <v>84</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" ht="15" spans="1:4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="8"/>
       <c r="B14" s="8">
         <v>270</v>
@@ -7507,17 +7467,17 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" ht="15" spans="1:4">
+    <row r="15" spans="1:4">
       <c r="A15" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" ht="15" spans="1:4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="8"/>
       <c r="B16" s="8">
         <v>310</v>
@@ -7526,20 +7486,20 @@
         <v>24</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="1:4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="8"/>
       <c r="B17" s="8">
         <v>320</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" ht="15" spans="1:4">
+    <row r="18" spans="1:4">
       <c r="A18" s="8"/>
       <c r="B18" s="8">
         <v>330</v>
@@ -7547,7 +7507,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" ht="15" spans="1:4">
+    <row r="19" spans="1:4">
       <c r="A19" s="8"/>
       <c r="B19" s="8">
         <v>340</v>
@@ -7555,14 +7515,14 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" ht="15" spans="1:4">
+    <row r="20" spans="1:4">
       <c r="A20" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7579,10 +7539,10 @@
         <v>420</v>
       </c>
       <c r="C22" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7591,7 +7551,7 @@
         <v>430</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -7601,10 +7561,10 @@
         <v>440</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7616,7 +7576,7 @@
         <v>27</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -7642,7 +7602,7 @@
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="17.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="13.6666666666667" customWidth="1"/>
@@ -7653,10 +7613,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" ht="15" spans="1:2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -7664,7 +7624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -7672,7 +7632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:2">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>72</v>
       </c>
@@ -7680,7 +7640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:2">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -7688,7 +7648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:2">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -7696,7 +7656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:2">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -7704,23 +7664,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:2">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:2">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:2">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>97</v>
       </c>
@@ -7728,31 +7688,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:2">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:2">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:2">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:2">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>84</v>
       </c>
@@ -7760,17 +7720,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:2">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:2">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -7778,81 +7738,81 @@
     </row>
     <row r="17" ht="17.1" customHeight="1" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:2">
+    <row r="18" spans="1:2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" ht="15" spans="1:2">
+    <row r="19" spans="1:2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" ht="15" spans="1:2">
+    <row r="20" spans="1:2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" ht="15" spans="1:2">
+    <row r="21" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" ht="15" spans="1:2">
+    <row r="22" spans="1:2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" ht="15" spans="1:2">
+    <row r="23" spans="1:2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" ht="15" spans="1:2">
+    <row r="24" spans="1:2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" ht="15" spans="1:2">
+    <row r="25" spans="1:2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" ht="15" spans="1:2">
+    <row r="26" spans="1:2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" ht="15" spans="1:2">
+    <row r="27" spans="1:2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" ht="15" spans="1:2">
+    <row r="28" spans="1:2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" ht="15" spans="1:2">
+    <row r="29" spans="1:2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" ht="15" spans="1:2">
+    <row r="30" spans="1:2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" ht="15" spans="1:2">
+    <row r="31" spans="1:2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" ht="15" spans="1:2">
+    <row r="32" spans="1:2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
     </row>
-    <row r="33" ht="15" spans="1:2">
+    <row r="33" spans="1:2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" ht="15" spans="1:2">
+    <row r="34" spans="1:2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" ht="15" spans="1:2">
+    <row r="35" spans="1:2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
     </row>

--- a/读书计划.xlsx
+++ b/读书计划.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="141">
   <si>
     <t>基本信息</t>
   </si>
@@ -676,10 +676,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
   <fonts count="27">
@@ -727,9 +727,63 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -756,30 +810,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,17 +818,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -817,8 +847,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,45 +865,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -921,7 +921,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,55 +1035,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,25 +1059,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,55 +1071,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,11 +1143,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1178,11 +1184,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1204,39 +1232,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1248,10 +1248,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1260,34 +1260,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1296,97 +1293,100 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1793,7 +1793,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3128,7 +3128,9 @@
       <c r="G41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2" t="s">

--- a/读书计划.xlsx
+++ b/读书计划.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="141">
   <si>
     <t>基本信息</t>
   </si>
@@ -676,11 +676,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -740,9 +740,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,9 +756,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,9 +779,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,6 +791,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -810,7 +832,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,30 +840,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -855,16 +854,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -921,7 +921,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,25 +969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,7 +987,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,49 +1041,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,31 +1059,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,13 +1077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,17 +1143,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1184,6 +1193,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1191,26 +1211,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1229,17 +1240,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1248,10 +1248,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1260,97 +1260,97 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1359,34 +1359,34 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1793,7 +1793,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3096,7 +3096,9 @@
       <c r="H40" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I40" s="17"/>
+      <c r="I40" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="J40" s="17"/>
       <c r="K40" s="17" t="s">
         <v>52</v>
@@ -3163,7 +3165,9 @@
       <c r="G42" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="17"/>
+      <c r="H42" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17" t="s">

--- a/读书计划.xlsx
+++ b/读书计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9492"/>
+    <workbookView windowWidth="28245" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="读书行动" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="141">
   <si>
     <t>基本信息</t>
   </si>
@@ -676,11 +676,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -741,8 +741,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,8 +786,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,7 +826,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,7 +841,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,22 +855,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -840,31 +864,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -921,13 +921,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,49 +1053,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,85 +1077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,6 +1143,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1158,20 +1176,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,35 +1208,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1240,6 +1229,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1248,10 +1248,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1263,94 +1263,94 @@
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1359,34 +1359,34 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1791,22 +1791,22 @@
   <dimension ref="A1:O279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
+      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="19.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="19.1083333333333" customWidth="1"/>
     <col min="3" max="3" width="24.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="16.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="16.6666666666667" style="10" customWidth="1"/>
     <col min="6" max="15" width="16.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:15">
+    <row r="1" ht="16.5" spans="1:15">
       <c r="A1" s="9"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" ht="15" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" ht="15" spans="1:15">
       <c r="A4" s="17" t="s">
         <v>22</v>
       </c>
@@ -1938,7 +1938,7 @@
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" ht="15" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -1969,7 +1969,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" ht="15" spans="1:15">
       <c r="A6" s="17" t="s">
         <v>28</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" ht="15" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -2031,7 +2031,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" ht="15" spans="1:15">
       <c r="A8" s="17" t="s">
         <v>31</v>
       </c>
@@ -2062,7 +2062,7 @@
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" ht="15" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -2093,7 +2093,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" ht="15" spans="1:15">
       <c r="A10" s="17" t="s">
         <v>35</v>
       </c>
@@ -2124,7 +2124,7 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" ht="15" spans="1:15">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" ht="15" spans="1:15">
       <c r="A12" s="17" t="s">
         <v>38</v>
       </c>
@@ -2186,7 +2186,7 @@
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" ht="15" spans="1:15">
       <c r="A13" s="19" t="s">
         <v>41</v>
       </c>
@@ -2217,7 +2217,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" ht="15" spans="1:15">
       <c r="A14" s="17" t="s">
         <v>43</v>
       </c>
@@ -2248,7 +2248,7 @@
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" ht="15" spans="1:15">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -2279,7 +2279,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" ht="15" spans="1:15">
       <c r="A16" s="17" t="s">
         <v>46</v>
       </c>
@@ -2312,7 +2312,7 @@
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" ht="15" spans="1:15">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2347,7 +2347,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" ht="15" spans="1:15">
       <c r="A18" s="17" t="s">
         <v>53</v>
       </c>
@@ -2382,7 +2382,7 @@
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" ht="15" spans="1:15">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -2417,7 +2417,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" ht="15" spans="1:15">
       <c r="A20" s="17" t="s">
         <v>57</v>
       </c>
@@ -2448,7 +2448,7 @@
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" ht="15" spans="1:15">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" ht="15" spans="1:15">
       <c r="A22" s="17" t="s">
         <v>61</v>
       </c>
@@ -2514,7 +2514,7 @@
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" ht="15" spans="1:15">
       <c r="A23" s="2" t="s">
         <v>62</v>
       </c>
@@ -2547,7 +2547,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" ht="15" spans="1:15">
       <c r="A24" s="17" t="s">
         <v>64</v>
       </c>
@@ -2580,7 +2580,7 @@
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" ht="15" spans="1:15">
       <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
@@ -2609,7 +2609,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" ht="15" spans="1:15">
       <c r="A26" s="17" t="s">
         <v>67</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" ht="15" spans="1:15">
       <c r="A27" s="2" t="s">
         <v>70</v>
       </c>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" ht="15" spans="1:15">
       <c r="A28" s="17" t="s">
         <v>73</v>
       </c>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="O28" s="17"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" ht="15" spans="1:15">
       <c r="A29" s="2" t="s">
         <v>74</v>
       </c>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" ht="15" spans="1:15">
       <c r="A30" s="17" t="s">
         <v>75</v>
       </c>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="O30" s="17"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" ht="15" spans="1:15">
       <c r="A31" s="2" t="s">
         <v>77</v>
       </c>
@@ -2811,7 +2811,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" ht="15" spans="1:15">
       <c r="A32" s="17" t="s">
         <v>80</v>
       </c>
@@ -2842,7 +2842,7 @@
       <c r="N32" s="17"/>
       <c r="O32" s="17"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" ht="15" spans="1:15">
       <c r="A33" s="2" t="s">
         <v>82</v>
       </c>
@@ -2875,7 +2875,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" ht="15" spans="1:15">
       <c r="A34" s="17" t="s">
         <v>85</v>
       </c>
@@ -2908,7 +2908,7 @@
       <c r="N34" s="17"/>
       <c r="O34" s="17"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" ht="15" spans="1:15">
       <c r="A35" s="2" t="s">
         <v>88</v>
       </c>
@@ -2941,7 +2941,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" ht="15" spans="1:15">
       <c r="A36" s="20" t="s">
         <v>90</v>
       </c>
@@ -2974,7 +2974,7 @@
       <c r="N36" s="17"/>
       <c r="O36" s="17"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" ht="15" spans="1:15">
       <c r="A37" s="19" t="s">
         <v>92</v>
       </c>
@@ -3007,7 +3007,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" ht="15" spans="1:15">
       <c r="A38" s="20" t="s">
         <v>94</v>
       </c>
@@ -3040,7 +3040,7 @@
       <c r="N38" s="17"/>
       <c r="O38" s="17"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" ht="15" spans="1:15">
       <c r="A39" s="19" t="s">
         <v>96</v>
       </c>
@@ -3110,7 +3110,7 @@
       <c r="N40" s="17"/>
       <c r="O40" s="17"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" ht="15" spans="1:15">
       <c r="A41" s="19" t="s">
         <v>99</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="N42" s="17"/>
       <c r="O42" s="17"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" ht="15" spans="1:15">
       <c r="A43" s="19" t="s">
         <v>101</v>
       </c>
@@ -3201,7 +3201,9 @@
         <v>21</v>
       </c>
       <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="I43" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2" t="s">
         <v>52</v>
@@ -3242,7 +3244,7 @@
       <c r="N44" s="17"/>
       <c r="O44" s="17"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" ht="15" spans="1:15">
       <c r="A45" s="19" t="s">
         <v>103</v>
       </c>
@@ -3263,7 +3265,9 @@
         <v>21</v>
       </c>
       <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="I45" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2" t="s">
         <v>52</v>
@@ -7307,11 +7311,11 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.8796296296296" customWidth="1"/>
-    <col min="2" max="2" width="12.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="18.212962962963" customWidth="1"/>
+    <col min="1" max="1" width="15.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="12.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="18.2166666666667" customWidth="1"/>
     <col min="4" max="4" width="57.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7337,7 +7341,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" ht="15" spans="1:4">
       <c r="A3" s="7" t="s">
         <v>110</v>
       </c>
@@ -7347,7 +7351,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" ht="15" spans="1:4">
       <c r="A4" s="8"/>
       <c r="B4" s="8">
         <v>110</v>
@@ -7359,7 +7363,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" ht="15" spans="1:4">
       <c r="A5" s="8"/>
       <c r="B5" s="8">
         <v>120</v>
@@ -7371,7 +7375,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" ht="15" spans="1:4">
       <c r="A6" s="8"/>
       <c r="B6" s="8">
         <v>140</v>
@@ -7383,7 +7387,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" ht="15" spans="1:4">
       <c r="A7" s="7" t="s">
         <v>116</v>
       </c>
@@ -7393,7 +7397,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" ht="15" spans="1:4">
       <c r="A8" s="8"/>
       <c r="B8" s="8">
         <v>210</v>
@@ -7405,7 +7409,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" ht="15" spans="1:4">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>220</v>
@@ -7415,7 +7419,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="15" spans="1:4">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>230</v>
@@ -7427,7 +7431,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" ht="15" spans="1:4">
       <c r="A11" s="8"/>
       <c r="B11" s="8">
         <v>240</v>
@@ -7439,7 +7443,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" ht="15" spans="1:4">
       <c r="A12" s="8"/>
       <c r="B12" s="8">
         <v>250</v>
@@ -7451,7 +7455,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" ht="15" spans="1:4">
       <c r="A13" s="8"/>
       <c r="B13" s="8">
         <v>260</v>
@@ -7463,7 +7467,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" ht="15" spans="1:4">
       <c r="A14" s="8"/>
       <c r="B14" s="8">
         <v>270</v>
@@ -7473,7 +7477,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" ht="15" spans="1:4">
       <c r="A15" s="7" t="s">
         <v>126</v>
       </c>
@@ -7483,7 +7487,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" ht="15" spans="1:4">
       <c r="A16" s="8"/>
       <c r="B16" s="8">
         <v>310</v>
@@ -7495,7 +7499,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" ht="15" spans="1:4">
       <c r="A17" s="8"/>
       <c r="B17" s="8">
         <v>320</v>
@@ -7505,7 +7509,7 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" ht="15" spans="1:4">
       <c r="A18" s="8"/>
       <c r="B18" s="8">
         <v>330</v>
@@ -7513,7 +7517,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" ht="15" spans="1:4">
       <c r="A19" s="8"/>
       <c r="B19" s="8">
         <v>340</v>
@@ -7521,7 +7525,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" ht="15" spans="1:4">
       <c r="A20" s="7" t="s">
         <v>130</v>
       </c>
@@ -7608,7 +7612,7 @@
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="17.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="13.6666666666667" customWidth="1"/>
@@ -7622,7 +7626,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" ht="15" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -7630,7 +7634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" ht="15" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -7638,7 +7642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" ht="15" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>72</v>
       </c>
@@ -7646,7 +7650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" ht="15" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -7654,7 +7658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" ht="15" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -7662,7 +7666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" ht="15" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -7670,7 +7674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" ht="15" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>135</v>
       </c>
@@ -7678,7 +7682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" ht="15" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>112</v>
       </c>
@@ -7686,7 +7690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" ht="15" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>97</v>
       </c>
@@ -7694,7 +7698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" ht="15" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>118</v>
       </c>
@@ -7702,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" ht="15" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>120</v>
       </c>
@@ -7710,7 +7714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" ht="15" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>139</v>
       </c>
@@ -7718,7 +7722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" ht="15" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>84</v>
       </c>
@@ -7726,7 +7730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" ht="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>140</v>
       </c>
@@ -7734,7 +7738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" ht="15" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>132</v>
       </c>
@@ -7750,75 +7754,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" ht="15" spans="1:2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" ht="15" spans="1:2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" ht="15" spans="1:2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" ht="15" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" ht="15" spans="1:2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" ht="15" spans="1:2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" ht="15" spans="1:2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" ht="15" spans="1:2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" ht="15" spans="1:2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" ht="15" spans="1:2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" ht="15" spans="1:2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" ht="15" spans="1:2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" ht="15" spans="1:2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" ht="15" spans="1:2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" ht="15" spans="1:2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" ht="15" spans="1:2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" ht="15" spans="1:2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" ht="15" spans="1:2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
     </row>
